--- a/public/src/modules/PrimaryScreen/spec/PrimaryAnalysisACASMap.xlsx
+++ b/public/src/modules/PrimaryScreen/spec/PrimaryAnalysisACASMap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-960" yWindow="-20040" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="9880" yWindow="-19760" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="132">
   <si>
     <t>recordedBy</t>
   </si>
@@ -255,9 +255,6 @@
     <t>analysis status</t>
   </si>
   <si>
-    <t>running, complete, failed</t>
-  </si>
-  <si>
     <t>experiments/EXP-00000001/analysis/EXP-00000001_Summary.pdf</t>
   </si>
   <si>
@@ -412,6 +409,15 @@
   </si>
   <si>
     <t>test compound treatment</t>
+  </si>
+  <si>
+    <t>running parsing, data parsed, running fit, fit, failed</t>
+  </si>
+  <si>
+    <t>approved, rejected</t>
+  </si>
+  <si>
+    <t>fit result html</t>
   </si>
 </sst>
 </file>
@@ -466,8 +472,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="549">
+  <cellStyleXfs count="553">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1024,7 +1034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="549">
+  <cellStyles count="553">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1299,6 +1309,8 @@
     <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1573,6 +1585,8 @@
     <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1902,11 +1916,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1937,7 +1951,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
         <v>56</v>
@@ -2432,6 +2446,9 @@
       <c r="G33" t="s">
         <v>48</v>
       </c>
+      <c r="H33" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
@@ -2447,10 +2464,10 @@
         <v>76</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2478,13 +2495,13 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2498,10 +2515,10 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2515,58 +2532,58 @@
         <v>9</v>
       </c>
       <c r="F38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
         <v>53</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="3" customFormat="1">
-      <c r="A39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="4">
-        <v>41346</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1">
       <c r="A40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="G40" s="4">
+        <v>41346</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1">
       <c r="A41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>7</v>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1">
@@ -2580,10 +2597,10 @@
         <v>65</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1">
@@ -2597,41 +2614,41 @@
         <v>65</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="2" customFormat="1">
-      <c r="A44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1">
+      <c r="A44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>7</v>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="2" customFormat="1">
@@ -2645,10 +2662,10 @@
         <v>65</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="2" customFormat="1">
@@ -2662,10 +2679,10 @@
         <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="2" customFormat="1">
@@ -2676,44 +2693,44 @@
         <v>7</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>6</v>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>7</v>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1">
@@ -2727,10 +2744,10 @@
         <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1">
@@ -2744,10 +2761,10 @@
         <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1">
@@ -2758,82 +2775,82 @@
         <v>7</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="2" customFormat="1">
+      <c r="A54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
+      <c r="G54" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1">
-      <c r="A58" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="2" t="s">
+    <row r="59" spans="1:7" s="2" customFormat="1">
+      <c r="A59" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>103</v>
-      </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" t="s">
-        <v>88</v>
-      </c>
-      <c r="F59" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F60" t="s">
-        <v>108</v>
-      </c>
-      <c r="G60" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G61" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -2842,139 +2859,139 @@
         <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G62" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G63" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G64" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" t="s">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1">
+      <c r="A69" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="2" customFormat="1">
-      <c r="A68" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" t="s">
-        <v>88</v>
-      </c>
-      <c r="F69" t="s">
-        <v>107</v>
+      <c r="B69" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" t="s">
-        <v>7</v>
+        <v>103</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s">
-        <v>108</v>
-      </c>
-      <c r="G70" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G71" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -2983,178 +3000,178 @@
         <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G72" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
+        <v>103</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" t="s">
-        <v>7</v>
+        <v>103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
       </c>
       <c r="E75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
         <v>9</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" t="s">
         <v>101</v>
       </c>
-      <c r="G75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="2" customFormat="1">
-      <c r="A77" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" t="s">
-        <v>89</v>
+    </row>
+    <row r="78" spans="1:7" s="2" customFormat="1">
+      <c r="A78" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
         <v>87</v>
       </c>
-      <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
         <v>12</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" t="s">
         <v>90</v>
       </c>
-      <c r="G79" t="s">
+    </row>
+    <row r="81" spans="1:7" s="2" customFormat="1">
+      <c r="A81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" s="2" customFormat="1">
-      <c r="A80" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="G82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="2" customFormat="1">
+      <c r="A83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" t="s">
-        <v>92</v>
-      </c>
-      <c r="G81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="2" customFormat="1">
-      <c r="A82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>108</v>
-      </c>
-      <c r="G83" t="s">
-        <v>94</v>
+      <c r="G83" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G84" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -3163,178 +3180,178 @@
         <v>12</v>
       </c>
       <c r="F85" t="s">
+        <v>94</v>
+      </c>
+      <c r="G85" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>96</v>
+      </c>
+      <c r="G86" t="s">
         <v>97</v>
-      </c>
-      <c r="G85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="2" customFormat="1">
-      <c r="A86" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1">
       <c r="A87" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1">
       <c r="A88" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1">
       <c r="A89" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="2" customFormat="1">
+      <c r="A90" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" t="s">
-        <v>88</v>
-      </c>
-      <c r="F90" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" t="s">
-        <v>11</v>
-      </c>
       <c r="F91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>126</v>
-      </c>
-      <c r="G92">
         <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>87</v>
-      </c>
-      <c r="D93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s">
-        <v>38</v>
+        <v>86</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s">
+        <v>125</v>
+      </c>
+      <c r="G93">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94" t="s">
-        <v>23</v>
-      </c>
-      <c r="F94" t="s">
-        <v>100</v>
+        <v>86</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95" t="s">
-        <v>7</v>
+        <v>86</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
       </c>
       <c r="E95" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
         <v>9</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
+        <v>100</v>
+      </c>
+      <c r="G96" t="s">
         <v>101</v>
-      </c>
-      <c r="G95" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="2" customFormat="1">
-      <c r="A96" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1">
       <c r="A97" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>7</v>
@@ -3343,10 +3360,27 @@
         <v>9</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="2" customFormat="1">
+      <c r="A98" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
